--- a/nf1g/surv/pub/tumor_penetrance_stats.xlsx
+++ b/nf1g/surv/pub/tumor_penetrance_stats.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah.sharepoint.com/sites/HolmenLab/Shared Documents/General/garrett hl-onedrive/R/rchpc/nf1g/surv/pub/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F2C72E3C67902689A99225D7FD945C369B80C786" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A01EAB-F064-4132-8EE5-7D941430EAA0}"/>
   <bookViews>
-    <workbookView xWindow="35535" yWindow="2940" windowWidth="22065" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="prop tests" sheetId="1" r:id="rId1"/>
@@ -19,108 +13,13 @@
     <sheet name="2-tumor props" sheetId="4" r:id="rId4"/>
     <sheet name="3-tumor props" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="30">
-  <si>
-    <t>group1</t>
-  </si>
-  <si>
-    <t>group2</t>
-  </si>
-  <si>
-    <t>fisher_p_2group</t>
-  </si>
-  <si>
-    <t>chisq_p_2group</t>
-  </si>
-  <si>
-    <t>fisher_p_3group</t>
-  </si>
-  <si>
-    <t>chisq_p_3group</t>
-  </si>
-  <si>
-    <t>nf1 KO; pten KO; ink KO; atrx KO</t>
-  </si>
-  <si>
-    <t>nf1 KO; pten KO; ink KO; atrx wt</t>
-  </si>
-  <si>
-    <t>nf1 KO; pten wt; ink KO; atrx wt</t>
-  </si>
-  <si>
-    <t>nf1 KO; pten wt; ink wt; atrx wt</t>
-  </si>
-  <si>
-    <t>nf1 wt; pten KO; ink KO; atrx KO</t>
-  </si>
-  <si>
-    <t>nf1 wt; pten KO; ink KO; atrx wt</t>
-  </si>
-  <si>
-    <t>resultant_geno</t>
-  </si>
-  <si>
-    <t>hist_cat_name</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>total_n</t>
-  </si>
-  <si>
-    <t>perc</t>
-  </si>
-  <si>
-    <t>tumor</t>
-  </si>
-  <si>
-    <t>Nerve sheath tumors</t>
-  </si>
-  <si>
-    <t>Spindle and epithelioid tumors</t>
-  </si>
-  <si>
-    <t>Gliomas</t>
-  </si>
-  <si>
-    <t>Glioneuronal tumors</t>
-  </si>
-  <si>
-    <t>No histological classification</t>
-  </si>
-  <si>
-    <t>Pretumorigenic</t>
-  </si>
-  <si>
-    <t>no tumor</t>
-  </si>
-  <si>
-    <t>No evidence of disease</t>
-  </si>
-  <si>
-    <t>Excluded from histology (event)</t>
-  </si>
-  <si>
-    <t>Excluded from histology (no event)</t>
-  </si>
-  <si>
-    <t>pretumorigenic</t>
-  </si>
-  <si>
-    <t>ncount</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,21 +67,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +111,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,7 +145,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -289,10 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,338 +354,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>group1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>group2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fisher_p_2group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chisq_p_2group</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fisher_p_3group</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>chisq_p_3group</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C2">
-        <v>6.9298142295423568E-2</v>
+        <v>0.06929814229542357</v>
       </c>
       <c r="D2">
-        <v>5.2630770179673783E-2</v>
+        <v>0.05263077017967378</v>
       </c>
       <c r="E2">
-        <v>0.12767872321276791</v>
+        <v>0.1293987060129399</v>
       </c>
       <c r="F2">
-        <v>0.12624221270178279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>0.1262422127017828</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C3">
-        <v>4.3661643496440083E-2</v>
+        <v>0.04366164349644008</v>
       </c>
       <c r="D3">
-        <v>2.5310491120831679E-2</v>
+        <v>0.02531049112083168</v>
       </c>
       <c r="E3">
-        <v>5.8199418005819943E-3</v>
+        <v>0.005859941400585995</v>
       </c>
       <c r="F3">
-        <v>3.4960312880690171E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>0.003496031288069017</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
       </c>
       <c r="C4">
-        <v>3.5248314075908977E-4</v>
+        <v>0.0003524831407590898</v>
       </c>
       <c r="D4">
-        <v>2.7146889245246292E-4</v>
+        <v>0.0002714688924524629</v>
       </c>
       <c r="E4">
-        <v>1.199988000119999E-4</v>
+        <v>0.0001799982000179998</v>
       </c>
       <c r="F4">
-        <v>1.8470303045892399E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>0.000184703030458924</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
       </c>
       <c r="C5">
-        <v>1.425401036458239E-5</v>
+        <v>1.425401036458239E-05</v>
       </c>
       <c r="D5">
-        <v>1.277762811989237E-5</v>
+        <v>1.277762811989237E-05</v>
       </c>
       <c r="E5">
-        <v>9.9999000009999908E-6</v>
+        <v>9.999900000999991E-06</v>
       </c>
       <c r="F5">
-        <v>9.4976213114235861E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>9.497621311423586E-08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C6">
-        <v>1.8751980529737749E-6</v>
+        <v>1.875198052973775E-06</v>
       </c>
       <c r="D6">
-        <v>2.1035555334142449E-6</v>
+        <v>2.103555533414245E-06</v>
       </c>
       <c r="E6">
-        <v>9.9999000009999908E-6</v>
+        <v>1.999980000199998E-05</v>
       </c>
       <c r="F6">
-        <v>1.9669165400958308E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>1.966916540095831E-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C7">
-        <v>1.3730243497037941E-4</v>
+        <v>0.0001373024349703794</v>
       </c>
       <c r="D7">
-        <v>4.3558784825051477E-5</v>
+        <v>4.355878482505148E-05</v>
       </c>
       <c r="E7">
-        <v>5.9999400005999941E-5</v>
+        <v>9.99990000099999E-05</v>
       </c>
       <c r="F7">
-        <v>1.6525196070519811E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>1.652519607051981E-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
       </c>
       <c r="C8">
-        <v>1.6468490930154779E-7</v>
+        <v>1.646849093015478E-07</v>
       </c>
       <c r="D8">
-        <v>2.1403376590969961E-8</v>
+        <v>2.140337659096996E-08</v>
       </c>
       <c r="E8">
-        <v>9.9999000009999908E-6</v>
+        <v>9.999900000999991E-06</v>
       </c>
       <c r="F8">
-        <v>1.565464596656788E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+        <v>1.565464596656788E-09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
       </c>
       <c r="C9">
-        <v>2.5761088224591871E-10</v>
+        <v>2.576108822459187E-10</v>
       </c>
       <c r="D9">
-        <v>6.6383951916340091E-11</v>
+        <v>6.638395191634009E-11</v>
       </c>
       <c r="E9">
-        <v>9.9999000009999908E-6</v>
+        <v>9.999900000999991E-06</v>
       </c>
       <c r="F9">
-        <v>9.7103525065822186E-13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+        <v>9.710352506582219E-13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C10">
-        <v>1.1651185113155269E-11</v>
+        <v>1.165118511315527E-11</v>
       </c>
       <c r="D10">
-        <v>4.0914509792343493E-12</v>
+        <v>4.091450979234349E-12</v>
       </c>
       <c r="E10">
-        <v>9.9999000009999908E-6</v>
+        <v>9.999900000999991E-06</v>
       </c>
       <c r="F10">
         <v>1.11678339245994E-11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
       </c>
       <c r="C11">
-        <v>0.21715646446219339</v>
+        <v>0.2171564644621934</v>
       </c>
       <c r="D11">
         <v>0.1710662537021507</v>
       </c>
       <c r="E11">
-        <v>2.8999710002899969E-4</v>
+        <v>0.0002399976000239998</v>
       </c>
       <c r="F11">
-        <v>3.0752304998283328E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>0.0003075230499828333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
       </c>
       <c r="C12">
-        <v>8.2811416650721045E-2</v>
+        <v>0.08281141665072105</v>
       </c>
       <c r="D12">
-        <v>7.0793086981880637E-2</v>
+        <v>0.07079308698188064</v>
       </c>
       <c r="E12">
-        <v>0.1086989130108699</v>
+        <v>0.1085289147108529</v>
       </c>
       <c r="F12">
         <v>0.1301340946313542</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C13">
-        <v>3.7357531867507773E-2</v>
+        <v>0.03735753186750777</v>
       </c>
       <c r="D13">
-        <v>2.9425468937868071E-2</v>
+        <v>0.02942546893786807</v>
       </c>
       <c r="E13">
-        <v>7.4959250407495931E-2</v>
+        <v>0.07439925600743992</v>
       </c>
       <c r="F13">
-        <v>7.1257657533566485E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>0.07125765753356648</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.76547454902112499</v>
+        <v>0.765474549021125</v>
       </c>
       <c r="E14">
-        <v>9.9999000009999908E-6</v>
+        <v>9.999900000999991E-06</v>
       </c>
       <c r="F14">
-        <v>4.4274240778226758E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
+        <v>4.427424077822676E-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C15">
-        <v>0.72300054608025721</v>
+        <v>0.7230005460802572</v>
       </c>
       <c r="D15">
-        <v>0.50914627158656023</v>
+        <v>0.5091462715865602</v>
       </c>
       <c r="E15">
-        <v>9.3999060009399905E-4</v>
+        <v>0.0006999930000699993</v>
       </c>
       <c r="F15">
-        <v>1.706611726099423E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
+        <v>0.001706611726099423</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
       </c>
       <c r="C16">
-        <v>0.74996033599755862</v>
+        <v>0.7499603359975586</v>
       </c>
       <c r="D16">
-        <v>0.69663378702054024</v>
+        <v>0.6966337870205402</v>
       </c>
       <c r="E16">
-        <v>0.13905860941390591</v>
+        <v>0.1370386296137039</v>
       </c>
       <c r="F16">
-        <v>0.13409652121306631</v>
+        <v>0.1340965212130663</v>
       </c>
     </row>
   </sheetData>
@@ -805,39 +759,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>resultant_geno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>hist_cat_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>perc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C2">
         <v>7</v>
@@ -848,16 +818,22 @@
       <c r="E2">
         <v>12.96296296296296</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Spindle and epithelioid tumors</t>
+        </is>
       </c>
       <c r="C3">
         <v>11</v>
@@ -868,16 +844,22 @@
       <c r="E3">
         <v>20.37037037037037</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C4">
         <v>10</v>
@@ -886,18 +868,24 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>18.518518518518519</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>18.51851851851852</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glioneuronal tumors</t>
+        </is>
       </c>
       <c r="C5">
         <v>2</v>
@@ -906,18 +894,24 @@
         <v>54</v>
       </c>
       <c r="E5">
-        <v>3.7037037037037028</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+        <v>3.703703703703703</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No histological classification</t>
+        </is>
       </c>
       <c r="C6">
         <v>1</v>
@@ -926,18 +920,24 @@
         <v>54</v>
       </c>
       <c r="E6">
-        <v>1.8518518518518521</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+        <v>1.851851851851852</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C7">
         <v>12</v>
@@ -946,18 +946,24 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
+        <v>22.22222222222222</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C8">
         <v>4</v>
@@ -966,18 +972,24 @@
         <v>54</v>
       </c>
       <c r="E8">
-        <v>7.4074074074074074</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
+        <v>7.407407407407407</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C9">
         <v>6</v>
@@ -986,18 +998,24 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1006,18 +1024,24 @@
         <v>54</v>
       </c>
       <c r="E10">
-        <v>1.8518518518518521</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
+        <v>1.851851851851852</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1028,16 +1052,22 @@
       <c r="E11">
         <v>10.89108910891089</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spindle and epithelioid tumors</t>
+        </is>
       </c>
       <c r="C12">
         <v>18</v>
@@ -1048,16 +1078,22 @@
       <c r="E12">
         <v>17.82178217821782</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C13">
         <v>22</v>
@@ -1068,16 +1104,22 @@
       <c r="E13">
         <v>21.78217821782178</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Glioneuronal tumors</t>
+        </is>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1086,18 +1128,24 @@
         <v>101</v>
       </c>
       <c r="E14">
-        <v>6.9306930693069324</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
+        <v>6.930693069306932</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No histological classification</t>
+        </is>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1106,18 +1154,24 @@
         <v>101</v>
       </c>
       <c r="E15">
-        <v>2.9702970297029698</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
+        <v>2.97029702970297</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1128,16 +1182,22 @@
       <c r="E16">
         <v>10.89108910891089</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1146,18 +1206,24 @@
         <v>101</v>
       </c>
       <c r="E17">
-        <v>5.9405940594059414</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+        <v>5.940594059405941</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C18">
         <v>22</v>
@@ -1168,16 +1234,22 @@
       <c r="E18">
         <v>21.78217821782178</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1186,18 +1258,24 @@
         <v>101</v>
       </c>
       <c r="E19">
-        <v>0.99009900990099009</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
+        <v>0.9900990099009901</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1206,18 +1284,24 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
+        <v>4.166666666666666</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1228,16 +1312,22 @@
       <c r="E21">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1246,18 +1336,24 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1266,18 +1362,24 @@
         <v>24</v>
       </c>
       <c r="E23">
-        <v>41.666666666666671</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
+        <v>41.66666666666667</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1288,16 +1390,22 @@
       <c r="E24">
         <v>12.5</v>
       </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1308,16 +1416,22 @@
       <c r="E25">
         <v>22.72727272727273</v>
       </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C26">
         <v>16</v>
@@ -1326,18 +1440,24 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>72.727272727272734</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
+        <v>72.72727272727273</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1346,18 +1466,24 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
+        <v>4.545454545454546</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1368,16 +1494,22 @@
       <c r="E28">
         <v>3.225806451612903</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Spindle and epithelioid tumors</t>
+        </is>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1388,16 +1520,22 @@
       <c r="E29">
         <v>3.225806451612903</v>
       </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1408,16 +1546,22 @@
       <c r="E30">
         <v>12.90322580645161</v>
       </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1428,16 +1572,22 @@
       <c r="E31">
         <v>12.90322580645161</v>
       </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C32">
         <v>15</v>
@@ -1446,18 +1596,24 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>48.387096774193552</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
+        <v>48.38709677419355</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1468,16 +1624,22 @@
       <c r="E33">
         <v>19.35483870967742</v>
       </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1488,16 +1650,22 @@
       <c r="E34">
         <v>3.125</v>
       </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1508,16 +1676,22 @@
       <c r="E35">
         <v>6.25</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C36">
         <v>11</v>
@@ -1528,16 +1702,22 @@
       <c r="E36">
         <v>34.375</v>
       </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C37">
         <v>11</v>
@@ -1548,16 +1728,22 @@
       <c r="E37">
         <v>34.375</v>
       </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1568,16 +1754,22 @@
       <c r="E38">
         <v>6.25</v>
       </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1588,8 +1780,10 @@
       <c r="E39">
         <v>15.625</v>
       </c>
-      <c r="F39" t="s">
-        <v>24</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1598,39 +1792,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>resultant_geno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>hist_cat_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>perc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1641,16 +1851,22 @@
       <c r="E2">
         <v>12.96296296296296</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Spindle and epithelioid tumors</t>
+        </is>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1661,16 +1877,22 @@
       <c r="E3">
         <v>20.37037037037037</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1679,18 +1901,24 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>18.518518518518519</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>18.51851851851852</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glioneuronal tumors</t>
+        </is>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1699,18 +1927,24 @@
         <v>54</v>
       </c>
       <c r="E5">
-        <v>3.7037037037037028</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+        <v>3.703703703703703</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No histological classification</t>
+        </is>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1719,18 +1953,24 @@
         <v>54</v>
       </c>
       <c r="E6">
-        <v>1.8518518518518521</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+        <v>1.851851851851852</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C7">
         <v>12</v>
@@ -1739,18 +1979,24 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>22.222222222222221</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
+        <v>22.22222222222222</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1759,18 +2005,24 @@
         <v>54</v>
       </c>
       <c r="E8">
-        <v>7.4074074074074074</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
+        <v>7.407407407407407</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1779,18 +2031,24 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1799,18 +2057,24 @@
         <v>54</v>
       </c>
       <c r="E10">
-        <v>1.8518518518518521</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
+        <v>1.851851851851852</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1821,16 +2085,22 @@
       <c r="E11">
         <v>10.89108910891089</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spindle and epithelioid tumors</t>
+        </is>
       </c>
       <c r="C12">
         <v>18</v>
@@ -1841,16 +2111,22 @@
       <c r="E12">
         <v>17.82178217821782</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C13">
         <v>22</v>
@@ -1861,16 +2137,22 @@
       <c r="E13">
         <v>21.78217821782178</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Glioneuronal tumors</t>
+        </is>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1879,18 +2161,24 @@
         <v>101</v>
       </c>
       <c r="E14">
-        <v>6.9306930693069324</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
+        <v>6.930693069306932</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No histological classification</t>
+        </is>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1899,18 +2187,24 @@
         <v>101</v>
       </c>
       <c r="E15">
-        <v>2.9702970297029698</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
+        <v>2.97029702970297</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1921,16 +2215,22 @@
       <c r="E16">
         <v>10.89108910891089</v>
       </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1939,18 +2239,24 @@
         <v>101</v>
       </c>
       <c r="E17">
-        <v>5.9405940594059414</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+        <v>5.940594059405941</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C18">
         <v>22</v>
@@ -1961,16 +2267,22 @@
       <c r="E18">
         <v>21.78217821782178</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1979,18 +2291,24 @@
         <v>101</v>
       </c>
       <c r="E19">
-        <v>0.99009900990099009</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
+        <v>0.9900990099009901</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1999,18 +2317,24 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
+        <v>4.166666666666666</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C21">
         <v>6</v>
@@ -2021,16 +2345,22 @@
       <c r="E21">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2039,18 +2369,24 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C23">
         <v>10</v>
@@ -2059,18 +2395,24 @@
         <v>24</v>
       </c>
       <c r="E23">
-        <v>41.666666666666671</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
+        <v>41.66666666666667</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C24">
         <v>3</v>
@@ -2081,16 +2423,22 @@
       <c r="E24">
         <v>12.5</v>
       </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2101,16 +2449,22 @@
       <c r="E25">
         <v>22.72727272727273</v>
       </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C26">
         <v>16</v>
@@ -2119,18 +2473,24 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>72.727272727272734</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
+        <v>72.72727272727273</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2139,18 +2499,24 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
+        <v>4.545454545454546</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2161,16 +2527,22 @@
       <c r="E28">
         <v>3.225806451612903</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Spindle and epithelioid tumors</t>
+        </is>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2181,16 +2553,22 @@
       <c r="E29">
         <v>3.225806451612903</v>
       </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2201,16 +2579,22 @@
       <c r="E30">
         <v>12.90322580645161</v>
       </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2221,16 +2605,22 @@
       <c r="E31">
         <v>12.90322580645161</v>
       </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C32">
         <v>15</v>
@@ -2239,18 +2629,24 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>48.387096774193552</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
+        <v>48.38709677419355</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2261,16 +2657,22 @@
       <c r="E33">
         <v>19.35483870967742</v>
       </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nerve sheath tumors</t>
+        </is>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2281,16 +2683,22 @@
       <c r="E34">
         <v>3.125</v>
       </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Gliomas</t>
+        </is>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2301,16 +2709,22 @@
       <c r="E35">
         <v>6.25</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pretumorigenic</t>
+        </is>
       </c>
       <c r="C36">
         <v>11</v>
@@ -2321,16 +2735,22 @@
       <c r="E36">
         <v>34.375</v>
       </c>
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No evidence of disease</t>
+        </is>
       </c>
       <c r="C37">
         <v>11</v>
@@ -2341,16 +2761,22 @@
       <c r="E37">
         <v>34.375</v>
       </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Excluded from histology (event)</t>
+        </is>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2361,16 +2787,22 @@
       <c r="E38">
         <v>6.25</v>
       </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Excluded from histology (no event)</t>
+        </is>
       </c>
       <c r="C39">
         <v>5</v>
@@ -2381,8 +2813,10 @@
       <c r="E39">
         <v>15.625</v>
       </c>
-      <c r="F39" t="s">
-        <v>24</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2391,92 +2825,113 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>resultant_geno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ncount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>perc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C2">
         <v>37</v>
       </c>
       <c r="D2">
-        <v>68.518518518518519</v>
+        <v>68.51851851851852</v>
       </c>
       <c r="E2">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C3">
         <v>17</v>
       </c>
       <c r="D3">
-        <v>31.481481481481481</v>
+        <v>31.48148148148148</v>
       </c>
       <c r="E3">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C4">
         <v>83</v>
       </c>
       <c r="D4">
-        <v>82.178217821782184</v>
+        <v>82.17821782178218</v>
       </c>
       <c r="E4">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C5">
         <v>18</v>
@@ -2488,46 +2943,58 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>41.666666666666657</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="E6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>58.333333333333343</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="E7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2539,12 +3006,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C9">
         <v>17</v>
@@ -2556,12 +3027,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2573,29 +3048,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
       <c r="D11">
-        <v>80.645161290322591</v>
+        <v>80.64516129032259</v>
       </c>
       <c r="E11">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2607,12 +3090,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C13">
         <v>27</v>
@@ -2630,110 +3117,134 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>resultant_geno</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ncount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>perc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C2">
         <v>37</v>
       </c>
       <c r="D2">
-        <v>68.518518518518519</v>
+        <v>68.51851851851852</v>
       </c>
       <c r="E2">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>22.222222222222221</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="E3">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>9.2592592592592577</v>
+        <v>9.259259259259258</v>
       </c>
       <c r="E4">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C5">
         <v>83</v>
       </c>
       <c r="D5">
-        <v>82.178217821782184</v>
+        <v>82.17821782178218</v>
       </c>
       <c r="E5">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
       </c>
       <c r="C6">
         <v>11</v>
@@ -2745,80 +3256,100 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>6.9306930693069306</v>
+        <v>6.930693069306931</v>
       </c>
       <c r="E7">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>41.666666666666657</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="E8">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>16.666666666666661</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="E9">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>41.666666666666671</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="E10">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2830,46 +3361,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12">
-        <v>72.727272727272734</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="E12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>nf1 KO; pten wt; ink wt; atrx wt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>4.5454545454545459</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="E13">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C14">
         <v>6</v>
@@ -2881,12 +3424,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2898,29 +3445,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx KO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
       <c r="D16">
-        <v>67.741935483870975</v>
+        <v>67.74193548387098</v>
       </c>
       <c r="E16">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2932,12 +3487,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pretumorigenic</t>
+        </is>
       </c>
       <c r="C18">
         <v>11</v>
@@ -2949,12 +3508,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nf1 wt; pten KO; ink KO; atrx wt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>no tumor</t>
+        </is>
       </c>
       <c r="C19">
         <v>16</v>
@@ -2972,26 +3535,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98fb7176-381e-4eb6-825b-93e64c92b6ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A52921E31622BA47A5BEE7A2CE318F26" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bbbe4ce2f8fe09d1c797aa555d1ed32a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98fb7176-381e-4eb6-825b-93e64c92b6ea" xmlns:ns3="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e562a0e15c5e5c6d0c89a0f84659810" ns2:_="" ns3:_="">
     <xsd:import namespace="98fb7176-381e-4eb6-825b-93e64c92b6ea"/>
@@ -3192,40 +3735,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98fb7176-381e-4eb6-825b-93e64c92b6ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64B07638-8F00-4C85-A22F-766E742A089A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="98fb7176-381e-4eb6-825b-93e64c92b6ea"/>
-    <ds:schemaRef ds:uri="fe56dbcb-f404-42a8-8006-471f9c1a2fc9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ECF54C5-285B-4CA1-BEBB-C981404E900D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB36670-12B9-481B-AB94-544905270096}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6939628C-A8D8-4947-9E29-D104FD76D6C8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA78A0EE-02E3-4046-BDB4-95F57B300DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="98fb7176-381e-4eb6-825b-93e64c92b6ea"/>
-    <ds:schemaRef ds:uri="fe56dbcb-f404-42a8-8006-471f9c1a2fc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60BE2DA7-0F80-455C-9DEC-CE1A742DF425}"/>
 </file>
--- a/nf1g/surv/pub/tumor_penetrance_stats.xlsx
+++ b/nf1g/surv/pub/tumor_penetrance_stats.xlsx
@@ -411,7 +411,7 @@
         <v>0.05263077017967378</v>
       </c>
       <c r="E2">
-        <v>0.1293987060129399</v>
+        <v>0.1293887061129389</v>
       </c>
       <c r="F2">
         <v>0.1262422127017828</v>
@@ -435,7 +435,7 @@
         <v>0.02531049112083168</v>
       </c>
       <c r="E3">
-        <v>0.005859941400585995</v>
+        <v>0.006509934900650993</v>
       </c>
       <c r="F3">
         <v>0.003496031288069017</v>
@@ -507,7 +507,7 @@
         <v>2.103555533414245E-06</v>
       </c>
       <c r="E6">
-        <v>1.999980000199998E-05</v>
+        <v>9.999900000999991E-06</v>
       </c>
       <c r="F6">
         <v>1.966916540095831E-06</v>
@@ -531,7 +531,7 @@
         <v>4.355878482505148E-05</v>
       </c>
       <c r="E7">
-        <v>9.99990000099999E-05</v>
+        <v>5.999940000599994E-05</v>
       </c>
       <c r="F7">
         <v>1.652519607051981E-05</v>
@@ -627,7 +627,7 @@
         <v>0.1710662537021507</v>
       </c>
       <c r="E11">
-        <v>0.0002399976000239998</v>
+        <v>0.0002099979000209998</v>
       </c>
       <c r="F11">
         <v>0.0003075230499828333</v>
@@ -651,7 +651,7 @@
         <v>0.07079308698188064</v>
       </c>
       <c r="E12">
-        <v>0.1085289147108529</v>
+        <v>0.1082089179108209</v>
       </c>
       <c r="F12">
         <v>0.1301340946313542</v>
@@ -675,7 +675,7 @@
         <v>0.02942546893786807</v>
       </c>
       <c r="E13">
-        <v>0.07439925600743992</v>
+        <v>0.07570924290757093</v>
       </c>
       <c r="F13">
         <v>0.07125765753356648</v>
@@ -723,7 +723,7 @@
         <v>0.5091462715865602</v>
       </c>
       <c r="E15">
-        <v>0.0006999930000699993</v>
+        <v>0.000949990500094999</v>
       </c>
       <c r="F15">
         <v>0.001706611726099423</v>
@@ -747,7 +747,7 @@
         <v>0.6966337870205402</v>
       </c>
       <c r="E16">
-        <v>0.1370386296137039</v>
+        <v>0.1380286197138029</v>
       </c>
       <c r="F16">
         <v>0.1340965212130663</v>
@@ -3756,13 +3756,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ECF54C5-285B-4CA1-BEBB-C981404E900D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36735001-4C81-4052-8FF7-7D38C5CA2343}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6939628C-A8D8-4947-9E29-D104FD76D6C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27AA03EE-FF99-48A9-A4A6-1300E8A136FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60BE2DA7-0F80-455C-9DEC-CE1A742DF425}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0960541A-9DEE-4461-B7E6-76DC578A0F0A}"/>
 </file>